--- a/Thiaminase Activity Assays.12.15.2022/Sample Storage Thiaminase Assay.xlsx
+++ b/Thiaminase Activity Assays.12.15.2022/Sample Storage Thiaminase Assay.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Drew Porter\Thiaminase Activity Assays\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Drew Porter\R\thiaminase\Thiaminase Activity Assays.12.15.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,9 +158,6 @@
     <t>NBS22 2908C</t>
   </si>
   <si>
-    <t>NBS22 2269</t>
-  </si>
-  <si>
     <t>NBS22 2934</t>
   </si>
   <si>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>NBS22 2933</t>
+  </si>
+  <si>
+    <t>NBS22 2669</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1288,7 @@
         <v>3028</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1377,10 +1377,10 @@
         <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1405,22 +1405,22 @@
         <v>40</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1428,34 +1428,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1463,10 +1463,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1482,10 +1482,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1549,34 +1549,34 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,34 +1584,34 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1619,34 +1619,34 @@
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="K18" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1654,34 +1654,34 @@
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="H19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1689,10 +1689,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1708,34 +1708,34 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="K21" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1743,34 +1743,34 @@
         <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1778,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1797,28 +1797,28 @@
         <v>9</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1891,34 +1891,34 @@
         <v>1</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="I29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="J29" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="K29" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1926,16 +1926,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1949,34 +1949,34 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,16 +1984,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="D32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2145,34 +2145,34 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2180,34 +2180,34 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2215,34 +2215,34 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2250,28 +2250,28 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2281,34 +2281,34 @@
         <v>5</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="J46" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="K46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2316,34 +2316,34 @@
         <v>6</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="K47" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2351,10 +2351,10 @@
         <v>7</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -2466,25 +2466,25 @@
         <v>20</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>27</v>
@@ -2498,16 +2498,16 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>34</v>
@@ -2536,7 +2536,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2558,28 +2558,28 @@
         <v>43</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2587,34 +2587,34 @@
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="I59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2622,16 +2622,16 @@
         <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -2645,34 +2645,34 @@
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2680,34 +2680,34 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2715,16 +2715,16 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -2801,34 +2801,34 @@
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2836,34 +2836,34 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="H69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J69" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -2871,16 +2871,16 @@
         <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2894,34 +2894,34 @@
         <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="K71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -2929,34 +2929,34 @@
         <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -2964,16 +2964,16 @@
         <v>6</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2987,34 +2987,34 @@
         <v>7</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3022,34 +3022,34 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3057,16 +3057,16 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3080,16 +3080,16 @@
         <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
